--- a/Team-Data/2013-14/10-31-2013-14.xlsx
+++ b/Team-Data/2013-14/10-31-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>-9</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>3</v>
@@ -762,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
         <v>18</v>
@@ -780,16 +847,16 @@
         <v>3</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -798,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW2" t="n">
         <v>1</v>
@@ -810,16 +877,16 @@
         <v>2</v>
       </c>
       <c r="AZ2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>-6</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>3</v>
@@ -947,28 +1014,28 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN3" t="n">
         <v>28</v>
       </c>
-      <c r="AN3" t="n">
-        <v>29</v>
-      </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ3" t="n">
         <v>21</v>
       </c>
       <c r="AR3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS3" t="n">
         <v>27</v>
@@ -980,28 +1047,28 @@
         <v>26</v>
       </c>
       <c r="AV3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
         <v>23</v>
       </c>
       <c r="BA3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -1108,25 +1175,25 @@
         <v>-4</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>13</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
       </c>
       <c r="AK4" t="n">
         <v>28</v>
@@ -1135,28 +1202,28 @@
         <v>8</v>
       </c>
       <c r="AM4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1165,10 +1232,10 @@
         <v>7</v>
       </c>
       <c r="AW4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY4" t="n">
         <v>4</v>
@@ -1177,13 +1244,13 @@
         <v>23</v>
       </c>
       <c r="BA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB4" t="n">
         <v>20</v>
       </c>
-      <c r="BB4" t="n">
-        <v>19</v>
-      </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -1290,22 +1357,22 @@
         <v>-13</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1314,7 +1381,7 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM5" t="n">
         <v>30</v>
@@ -1332,13 +1399,13 @@
         <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS5" t="n">
         <v>29</v>
       </c>
       <c r="AT5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU5" t="n">
         <v>28</v>
@@ -1347,13 +1414,13 @@
         <v>1</v>
       </c>
       <c r="AW5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ5" t="n">
         <v>11</v>
@@ -1365,7 +1432,7 @@
         <v>29</v>
       </c>
       <c r="BC5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -1394,160 +1461,160 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J6" t="n">
-        <v>79.5</v>
+        <v>83</v>
       </c>
       <c r="K6" t="n">
-        <v>0.415</v>
+        <v>0.422</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N6" t="n">
-        <v>0.238</v>
+        <v>0.269</v>
       </c>
       <c r="O6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.833</v>
+        <v>0.783</v>
       </c>
       <c r="R6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S6" t="n">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="T6" t="n">
-        <v>44.5</v>
+        <v>41</v>
       </c>
       <c r="U6" t="n">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="V6" t="n">
         <v>19</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.5</v>
+        <v>27</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.5</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>88.5</v>
+        <v>95</v>
       </c>
       <c r="AC6" t="n">
-        <v>-5.5</v>
+        <v>-12</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO6" t="n">
         <v>13</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AP6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU6" t="n">
         <v>13</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>14</v>
       </c>
       <c r="AV6" t="n">
         <v>20</v>
       </c>
       <c r="AW6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>23</v>
       </c>
-      <c r="AY6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>14</v>
-      </c>
       <c r="BA6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BB6" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="BC6" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>2</v>
@@ -1669,19 +1736,19 @@
         <v>3</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
         <v>22</v>
       </c>
       <c r="AM7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN7" t="n">
         <v>18</v>
@@ -1690,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="AP7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
         <v>22</v>
@@ -1720,16 +1787,16 @@
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB7" t="n">
         <v>15</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>2</v>
@@ -1851,10 +1918,10 @@
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>1</v>
@@ -1863,31 +1930,31 @@
         <v>3</v>
       </c>
       <c r="AM8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN8" t="n">
         <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV8" t="n">
         <v>26</v>
@@ -1899,13 +1966,13 @@
         <v>29</v>
       </c>
       <c r="AY8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ8" t="n">
         <v>15</v>
       </c>
       <c r="BA8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -2018,40 +2085,40 @@
         <v>-2</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>3</v>
       </c>
       <c r="AI9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="n">
         <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
         <v>22</v>
       </c>
       <c r="AM9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN9" t="n">
         <v>18</v>
       </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP9" t="n">
         <v>25</v>
@@ -2060,13 +2127,13 @@
         <v>1</v>
       </c>
       <c r="AR9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU9" t="n">
         <v>17</v>
@@ -2087,13 +2154,13 @@
         <v>11</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>2</v>
@@ -2218,31 +2285,31 @@
         <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL10" t="n">
         <v>8</v>
       </c>
       <c r="AM10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
         <v>4</v>
       </c>
       <c r="AP10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>13</v>
@@ -2272,10 +2339,10 @@
         <v>1</v>
       </c>
       <c r="BB10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -2304,160 +2371,160 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J11" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K11" t="n">
-        <v>0.531</v>
+        <v>0.535</v>
       </c>
       <c r="L11" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="M11" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="O11" t="n">
-        <v>20.5</v>
+        <v>18</v>
       </c>
       <c r="P11" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.732</v>
+        <v>0.783</v>
       </c>
       <c r="R11" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="S11" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="T11" t="n">
-        <v>40.5</v>
+        <v>48</v>
       </c>
       <c r="U11" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
         <v>4</v>
       </c>
       <c r="Z11" t="n">
-        <v>28.5</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AB11" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
       </c>
       <c r="AF11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" t="n">
         <v>13</v>
       </c>
-      <c r="AG11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="AP11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW11" t="n">
         <v>12</v>
       </c>
-      <c r="AK11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM11" t="n">
+      <c r="AX11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY11" t="n">
         <v>7</v>
       </c>
-      <c r="AN11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>8</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="BA11" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
       </c>
       <c r="BC11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>2</v>
@@ -2582,40 +2649,40 @@
         <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL12" t="n">
         <v>8</v>
       </c>
       <c r="AM12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR12" t="n">
         <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV12" t="n">
         <v>20</v>
@@ -2627,7 +2694,7 @@
         <v>7</v>
       </c>
       <c r="AY12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ12" t="n">
         <v>4</v>
@@ -2639,7 +2706,7 @@
         <v>17</v>
       </c>
       <c r="BC12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2834,7 @@
         <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
         <v>11</v>
@@ -2782,22 +2849,22 @@
         <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT13" t="n">
         <v>18</v>
       </c>
       <c r="AU13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
         <v>24</v>
@@ -2809,13 +2876,13 @@
         <v>1</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
         <v>3</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB13" t="n">
         <v>17</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -2850,160 +2917,160 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="J14" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" t="n">
         <v>0.494</v>
       </c>
       <c r="L14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>24.5</v>
+        <v>21</v>
       </c>
       <c r="N14" t="n">
-        <v>0.347</v>
+        <v>0.381</v>
       </c>
       <c r="O14" t="n">
+        <v>13</v>
+      </c>
+      <c r="P14" t="n">
         <v>23</v>
       </c>
-      <c r="P14" t="n">
-        <v>36.5</v>
-      </c>
       <c r="Q14" t="n">
-        <v>0.63</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="R14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U14" t="n">
         <v>27</v>
       </c>
       <c r="V14" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X14" t="n">
         <v>4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z14" t="n">
-        <v>25.5</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>114.5</v>
+        <v>103</v>
       </c>
       <c r="AC14" t="n">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
         <v>3</v>
       </c>
       <c r="AI14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS14" t="n">
         <v>17</v>
       </c>
-      <c r="AO14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>20</v>
-      </c>
       <c r="AT14" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
         <v>19</v>
       </c>
       <c r="AY14" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="BB14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BC14" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -3116,10 +3183,10 @@
         <v>2</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
         <v>3</v>
@@ -3143,10 +3210,10 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
@@ -3158,13 +3225,13 @@
         <v>13</v>
       </c>
       <c r="AT15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU15" t="n">
         <v>15</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW15" t="n">
         <v>21</v>
@@ -3176,16 +3243,16 @@
         <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA15" t="n">
         <v>17</v>
       </c>
       <c r="BB15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>-7</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
         <v>3</v>
@@ -3313,13 +3380,13 @@
         <v>3</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN16" t="n">
         <v>3</v>
@@ -3334,10 +3401,10 @@
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AS16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT16" t="n">
         <v>10</v>
@@ -3355,7 +3422,7 @@
         <v>25</v>
       </c>
       <c r="AY16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ16" t="n">
         <v>2</v>
@@ -3364,10 +3431,10 @@
         <v>23</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -3480,10 +3547,10 @@
         <v>2</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
         <v>3</v>
@@ -3495,10 +3562,10 @@
         <v>20</v>
       </c>
       <c r="AK17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM17" t="n">
         <v>1</v>
@@ -3507,22 +3574,22 @@
         <v>7</v>
       </c>
       <c r="AO17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS17" t="n">
         <v>20</v>
       </c>
-      <c r="AQ17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>19</v>
-      </c>
       <c r="AT17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU17" t="n">
         <v>3</v>
@@ -3531,25 +3598,25 @@
         <v>24</v>
       </c>
       <c r="AW17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY17" t="n">
         <v>3</v>
       </c>
       <c r="AZ17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -3656,37 +3723,37 @@
         <v>-7</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK18" t="n">
         <v>13</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>12</v>
       </c>
       <c r="AL18" t="n">
         <v>22</v>
       </c>
       <c r="AM18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>27</v>
@@ -3695,7 +3762,7 @@
         <v>30</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR18" t="n">
         <v>28</v>
@@ -3713,13 +3780,13 @@
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
         <v>19</v>
       </c>
       <c r="AY18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ18" t="n">
         <v>15</v>
@@ -3731,7 +3798,7 @@
         <v>29</v>
       </c>
       <c r="BC18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>5</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>2</v>
@@ -3859,22 +3926,22 @@
         <v>1</v>
       </c>
       <c r="AK19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN19" t="n">
         <v>21</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>22</v>
       </c>
       <c r="AO19" t="n">
         <v>2</v>
       </c>
       <c r="AP19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ19" t="n">
         <v>6</v>
@@ -3883,7 +3950,7 @@
         <v>4</v>
       </c>
       <c r="AS19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT19" t="n">
         <v>2</v>
@@ -3901,19 +3968,19 @@
         <v>25</v>
       </c>
       <c r="AY19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -4020,25 +4087,25 @@
         <v>-5</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
         <v>3</v>
       </c>
       <c r="AI20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
         <v>29</v>
@@ -4053,10 +4120,10 @@
         <v>6</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
         <v>7</v>
@@ -4065,13 +4132,13 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT20" t="n">
         <v>13</v>
       </c>
       <c r="AU20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4092,10 +4159,10 @@
         <v>23</v>
       </c>
       <c r="BB20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -4124,160 +4191,160 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>33.5</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>78.5</v>
+        <v>71</v>
       </c>
       <c r="K21" t="n">
-        <v>0.427</v>
+        <v>0.507</v>
       </c>
       <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>13</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="O21" t="n">
+        <v>15</v>
+      </c>
+      <c r="P21" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="R21" t="n">
         <v>6</v>
       </c>
-      <c r="M21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.324</v>
-      </c>
-      <c r="O21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="P21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="R21" t="n">
-        <v>9.5</v>
-      </c>
       <c r="S21" t="n">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="T21" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="U21" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="V21" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="W21" t="n">
         <v>12</v>
       </c>
       <c r="X21" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AC21" t="n">
         <v>7</v>
       </c>
-      <c r="Y21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>3</v>
-      </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>2</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
         <v>3</v>
       </c>
       <c r="AI21" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO21" t="n">
         <v>20</v>
       </c>
-      <c r="AK21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO21" t="n">
+      <c r="AP21" t="n">
         <v>25</v>
       </c>
-      <c r="AP21" t="n">
-        <v>27</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AS21" t="n">
         <v>22</v>
       </c>
       <c r="AT21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AU21" t="n">
         <v>23</v>
       </c>
-      <c r="AU21" t="n">
-        <v>21</v>
-      </c>
       <c r="AV21" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AW21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY21" t="n">
         <v>7</v>
       </c>
       <c r="AZ21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BA21" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="BB21" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>3</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4399,40 +4466,40 @@
         <v>3</v>
       </c>
       <c r="AI22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK22" t="n">
         <v>25</v>
       </c>
       <c r="AL22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM22" t="n">
         <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
         <v>30</v>
@@ -4447,19 +4514,19 @@
         <v>19</v>
       </c>
       <c r="AY22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB22" t="n">
         <v>12</v>
       </c>
       <c r="BC22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -4569,13 +4636,13 @@
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
         <v>30</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
         <v>2</v>
@@ -4587,7 +4654,7 @@
         <v>2</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>7</v>
@@ -4605,25 +4672,25 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR23" t="n">
         <v>6</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU23" t="n">
         <v>17</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX23" t="n">
         <v>7</v>
@@ -4632,7 +4699,7 @@
         <v>28</v>
       </c>
       <c r="AZ23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA23" t="n">
         <v>26</v>
@@ -4641,7 +4708,7 @@
         <v>12</v>
       </c>
       <c r="BC23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>4</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
@@ -4763,16 +4830,16 @@
         <v>3</v>
       </c>
       <c r="AI24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK24" t="n">
         <v>2</v>
       </c>
       <c r="AL24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM24" t="n">
         <v>15</v>
@@ -4781,28 +4848,28 @@
         <v>12</v>
       </c>
       <c r="AO24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS24" t="n">
         <v>13</v>
       </c>
       <c r="AT24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU24" t="n">
         <v>9</v>
       </c>
       <c r="AV24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW24" t="n">
         <v>1</v>
@@ -4817,13 +4884,13 @@
         <v>11</v>
       </c>
       <c r="BA24" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC24" t="n">
         <v>11</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>10</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>2</v>
@@ -4945,7 +5012,7 @@
         <v>3</v>
       </c>
       <c r="AI25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ25" t="n">
         <v>10</v>
@@ -4954,7 +5021,7 @@
         <v>5</v>
       </c>
       <c r="AL25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM25" t="n">
         <v>20</v>
@@ -4969,43 +5036,43 @@
         <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV25" t="n">
         <v>7</v>
       </c>
       <c r="AW25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX25" t="n">
         <v>13</v>
       </c>
       <c r="AY25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA25" t="n">
         <v>30</v>
       </c>
       <c r="BB25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -5112,52 +5179,52 @@
         <v>-13</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>3</v>
       </c>
       <c r="AI26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK26" t="n">
         <v>25</v>
       </c>
       <c r="AL26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ26" t="n">
         <v>18</v>
       </c>
       <c r="AR26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AS26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT26" t="n">
         <v>22</v>
@@ -5175,7 +5242,7 @@
         <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ26" t="n">
         <v>1</v>
@@ -5184,10 +5251,10 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>2</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>2</v>
@@ -5309,16 +5376,16 @@
         <v>3</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK27" t="n">
         <v>25</v>
       </c>
       <c r="AL27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM27" t="n">
         <v>15</v>
@@ -5327,22 +5394,22 @@
         <v>12</v>
       </c>
       <c r="AO27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ27" t="n">
         <v>19</v>
       </c>
       <c r="AR27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AS27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU27" t="n">
         <v>29</v>
@@ -5351,10 +5418,10 @@
         <v>2</v>
       </c>
       <c r="AW27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
@@ -5366,7 +5433,7 @@
         <v>18</v>
       </c>
       <c r="BB27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC27" t="n">
         <v>15</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5494,7 +5561,7 @@
         <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK28" t="n">
         <v>4</v>
@@ -5512,19 +5579,19 @@
         <v>27</v>
       </c>
       <c r="AP28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5542,7 +5609,7 @@
         <v>4</v>
       </c>
       <c r="AZ28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA28" t="n">
         <v>29</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>6</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>2</v>
@@ -5679,22 +5746,22 @@
         <v>6</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL29" t="n">
         <v>22</v>
       </c>
       <c r="AM29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO29" t="n">
         <v>26</v>
       </c>
       <c r="AP29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ29" t="n">
         <v>30</v>
@@ -5703,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT29" t="n">
         <v>3</v>
@@ -5712,10 +5779,10 @@
         <v>26</v>
       </c>
       <c r="AV29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX29" t="n">
         <v>7</v>
@@ -5724,16 +5791,16 @@
         <v>24</v>
       </c>
       <c r="AZ29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-3</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>3</v>
@@ -5861,31 +5928,31 @@
         <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM30" t="n">
         <v>14</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ30" t="n">
         <v>23</v>
       </c>
       <c r="AR30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT30" t="n">
         <v>10</v>
@@ -5894,7 +5961,7 @@
         <v>7</v>
       </c>
       <c r="AV30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW30" t="n">
         <v>22</v>
@@ -5903,19 +5970,19 @@
         <v>13</v>
       </c>
       <c r="AY30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB30" t="n">
         <v>15</v>
       </c>
       <c r="BC30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
@@ -6022,34 +6089,34 @@
         <v>-11</v>
       </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
         <v>3</v>
       </c>
       <c r="AI31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
         <v>6</v>
       </c>
       <c r="AM31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN31" t="n">
         <v>10</v>
@@ -6058,10 +6125,10 @@
         <v>5</v>
       </c>
       <c r="AP31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6076,7 +6143,7 @@
         <v>13</v>
       </c>
       <c r="AV31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW31" t="n">
         <v>25</v>
@@ -6085,19 +6152,19 @@
         <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>30</v>
       </c>
       <c r="BA31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB31" t="n">
         <v>11</v>
       </c>
       <c r="BC31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>10-31-2013-14</t>
+          <t>2013-10-31</t>
         </is>
       </c>
     </row>
